--- a/relays-creator/examples/HJU.xlsx
+++ b/relays-creator/examples/HJU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenezia/biot-tools/relays-creator/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenezia/biot-tools/relays-creator/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587CA66-6D83-1042-991E-57C2162EF6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF92D4-B1B5-834A-B69E-85AE97C273CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>relay_id</t>
   </si>
@@ -63,55 +63,64 @@
     <t>Wifi-HJU</t>
   </si>
   <si>
+    <t>relay_25</t>
+  </si>
+  <si>
+    <t>relay_16</t>
+  </si>
+  <si>
+    <t>relay_32</t>
+  </si>
+  <si>
+    <t>relay_33</t>
+  </si>
+  <si>
+    <t>relay_31</t>
+  </si>
+  <si>
+    <t>relay_28</t>
+  </si>
+  <si>
+    <t>relay_34</t>
+  </si>
+  <si>
+    <t>relay_15</t>
+  </si>
+  <si>
+    <t>relay_23</t>
+  </si>
+  <si>
+    <t>relay_17</t>
+  </si>
+  <si>
+    <t>relay_20</t>
+  </si>
+  <si>
+    <t>relay_19</t>
+  </si>
+  <si>
+    <t>relay_27</t>
+  </si>
+  <si>
+    <t>relay_26</t>
+  </si>
+  <si>
     <t>TX-3FqtA1_Cr$nTk</t>
   </si>
   <si>
-    <t>relay_25</t>
-  </si>
-  <si>
-    <t>relay_16</t>
-  </si>
-  <si>
-    <t>relay_32</t>
-  </si>
-  <si>
-    <t>relay_33</t>
-  </si>
-  <si>
-    <t>relay_31</t>
-  </si>
-  <si>
-    <t>relay_30</t>
-  </si>
-  <si>
-    <t>relay_28</t>
-  </si>
-  <si>
-    <t>relay_34</t>
-  </si>
-  <si>
-    <t>relay_29</t>
-  </si>
-  <si>
-    <t>relay_15</t>
-  </si>
-  <si>
-    <t>relay_23</t>
-  </si>
-  <si>
-    <t>relay_17</t>
-  </si>
-  <si>
-    <t>relay_20</t>
-  </si>
-  <si>
-    <t>relay_19</t>
-  </si>
-  <si>
-    <t>relay_27</t>
-  </si>
-  <si>
-    <t>relay_26</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>relay_13</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>relay_35</t>
+  </si>
+  <si>
+    <t>doesn't work</t>
   </si>
 </sst>
 </file>
@@ -403,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBDE1DB-74E8-4341-99C1-4B229B01B0DD}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -430,10 +439,13 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17">
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -448,12 +460,15 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>7.3384058317880498</v>
@@ -468,12 +483,15 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>7.3387910358630402</v>
@@ -488,12 +506,15 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>7.3388952470630198</v>
@@ -508,12 +529,15 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <v>7.3387199168016801</v>
@@ -528,12 +552,15 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6">
         <v>7.3386528616820703</v>
@@ -548,12 +575,15 @@
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>7.3385120749634503</v>
@@ -568,10 +598,13 @@
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -588,12 +621,15 @@
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>7.3385364995566</v>
@@ -608,12 +644,15 @@
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6">
         <v>7.3386482171746499</v>
@@ -628,12 +667,15 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6">
         <v>7.3386194792589601</v>
@@ -648,12 +690,15 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6">
         <v>7.3384619118033196</v>
@@ -668,12 +713,15 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6">
         <v>7.3385800009244004</v>
@@ -688,12 +736,15 @@
         <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6">
         <v>7.3385167194717296</v>
@@ -708,12 +759,15 @@
         <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6">
         <v>7.3386447337863796</v>
@@ -728,12 +782,15 @@
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6">
         <v>7.3385422642801803</v>
@@ -748,12 +805,15 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6">
         <v>7.3386511199907796</v>
@@ -768,7 +828,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
